--- a/s2cDNASample/s2cDNASample_0759.xlsx
+++ b/s2cDNASample/s2cDNASample_0759.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="12">
   <si>
     <t xml:space="preserve">s1cDNADate</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">08.10.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retrofitted_0759</t>
   </si>
   <si>
     <t xml:space="preserve">08.31.12</t>
@@ -190,7 +187,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="S21" activeCellId="0" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -709,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22</v>
@@ -732,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>23</v>
@@ -752,16 +749,16 @@
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>8</v>
